--- a/biology/Zoologie/Hadogenes_troglodytes/Hadogenes_troglodytes.xlsx
+++ b/biology/Zoologie/Hadogenes_troglodytes/Hadogenes_troglodytes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadogenes troglodytes est une espèce de scorpions de la famille des Hormuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Botswana et au Zimbabwe et au Mozambique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, au Botswana et au Zimbabwe et au Mozambique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce scorpion mesure jusqu'à 210 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce scorpion mesure jusqu'à 210 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (18/06/2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (18/06/2020) :
 Hadogenes troglodytes crassicaudatus Hewitt, 1918
 Hadogenes troglodytes dentatus Hewitt, 1918
 Hadogenes troglodytes letabensis Werner, 1933
@@ -608,9 +626,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ischnurus troglodytes par Peters en 1861. Elle est placée dans le genre Hadogenes par Kraepelin en 1894[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Ischnurus troglodytes par Peters en 1861. Elle est placée dans le genre Hadogenes par Kraepelin en 1894.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Peters, 1861 : Ueber eine neue Eintheilung der Skorpione und ueber die von ihm in Mossambique gesammelten Arten von Skorpionen, aus welchem hier ein Auszug mitgetheilt wird. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1861, no 1, p. 507–516 (texte intégral).
 Hewitt, 1918 : A survey of the scorpion fauna of South Africa. Transactions of the Royal Society of South Africa, vol. 6, p. 89–192 (texte intégral).
